--- a/Docs/componentes/Controlador.xlsx
+++ b/Docs/componentes/Controlador.xlsx
@@ -723,11 +723,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -736,7 +736,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1091,8 +1091,8 @@
   <sheetPr/>
   <dimension ref="B2:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -1149,7 +1149,7 @@
       </c>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="3">
@@ -1158,27 +1158,27 @@
       <c r="D4" s="3">
         <v>0</v>
       </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2">
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="3">
@@ -1187,27 +1187,27 @@
       <c r="D5" s="3">
         <v>1</v>
       </c>
-      <c r="E5" s="2">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>1</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2">
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="6" ht="18" spans="2:12">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="3">
@@ -1216,19 +1216,19 @@
       <c r="D6" s="3">
         <v>0</v>
       </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1</v>
-      </c>
-      <c r="G6" s="2">
-        <v>1</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
         <v>1</v>
       </c>
       <c r="J6" s="4">
@@ -1238,7 +1238,7 @@
       <c r="L6" s="6"/>
     </row>
     <row r="7" ht="18" spans="2:12">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="3">
@@ -1247,19 +1247,19 @@
       <c r="D7" s="3">
         <v>1</v>
       </c>
-      <c r="E7" s="2">
-        <v>0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
-        <v>1</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="7">

--- a/Docs/componentes/Controlador.xlsx
+++ b/Docs/componentes/Controlador.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>Controlador</t>
   </si>
@@ -27,7 +27,10 @@
     <t>Op Code</t>
   </si>
   <si>
-    <t>Reg DST</t>
+    <t>Func</t>
+  </si>
+  <si>
+    <t>Reg Data</t>
   </si>
   <si>
     <t>Reg Write</t>
@@ -39,9 +42,6 @@
     <t>ALU op</t>
   </si>
   <si>
-    <t>MEMtoReg</t>
-  </si>
-  <si>
     <t>MENwrite</t>
   </si>
   <si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>sub</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
   <si>
     <t>lw</t>
@@ -62,10 +68,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -83,6 +89,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -90,39 +110,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -144,111 +165,96 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -257,108 +263,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -366,78 +456,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,17 +484,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,6 +504,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,32 +547,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,178 +586,247 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1089,26 +1176,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:L11"/>
+  <dimension ref="B2:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="2" width="10.8518518518519" customWidth="1"/>
     <col min="3" max="3" width="3.93333333333333" customWidth="1"/>
-    <col min="4" max="4" width="3.66666666666667" customWidth="1"/>
-    <col min="5" max="5" width="7.55555555555556" customWidth="1"/>
-    <col min="6" max="6" width="8.55555555555556" customWidth="1"/>
-    <col min="7" max="7" width="6.88888888888889" customWidth="1"/>
-    <col min="8" max="8" width="6.55555555555556" customWidth="1"/>
-    <col min="9" max="9" width="9.22222222222222" customWidth="1"/>
-    <col min="10" max="10" width="8.44444444444444" customWidth="1"/>
+    <col min="4" max="6" width="3.77777777777778" customWidth="1"/>
+    <col min="7" max="7" width="4.44444444444444" customWidth="1"/>
+    <col min="8" max="8" width="4.55555555555556" customWidth="1"/>
+    <col min="9" max="9" width="8.55555555555556" customWidth="1"/>
+    <col min="10" max="10" width="6.88888888888889" customWidth="1"/>
+    <col min="11" max="11" width="6.55555555555556" customWidth="1"/>
+    <col min="12" max="12" width="8.44444444444444" customWidth="1"/>
+    <col min="13" max="13" width="9.22222222222222" customWidth="1"/>
+    <col min="14" max="14" width="8.44444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:14">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1120,178 +1209,288 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="23"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:14">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="11"/>
+      <c r="G3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="9"/>
+      <c r="I3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="M3" s="24"/>
+      <c r="N3" s="25"/>
     </row>
-    <row r="4" spans="2:10">
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="2:14">
+      <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0</v>
+      </c>
+      <c r="F4" s="12">
+        <v>0</v>
+      </c>
+      <c r="G4" s="13">
+        <v>1</v>
+      </c>
+      <c r="H4" s="14">
+        <v>0</v>
+      </c>
+      <c r="I4" s="20">
+        <v>1</v>
+      </c>
+      <c r="J4" s="14">
+        <v>0</v>
+      </c>
+      <c r="K4" s="20">
+        <v>0</v>
+      </c>
+      <c r="L4" s="20">
+        <v>0</v>
+      </c>
+      <c r="M4" s="26"/>
+      <c r="N4" s="27"/>
     </row>
-    <row r="5" spans="2:10">
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="2:14">
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="15">
+        <v>0</v>
+      </c>
+      <c r="F5" s="15">
+        <v>1</v>
+      </c>
+      <c r="G5" s="16">
+        <v>1</v>
+      </c>
+      <c r="H5" s="17">
+        <v>0</v>
+      </c>
+      <c r="I5" s="21">
+        <v>1</v>
+      </c>
+      <c r="J5" s="17">
+        <v>0</v>
+      </c>
+      <c r="K5" s="21">
+        <v>1</v>
+      </c>
+      <c r="L5" s="21">
+        <v>0</v>
+      </c>
+      <c r="M5" s="26"/>
+      <c r="N5" s="27"/>
     </row>
-    <row r="6" ht="18" spans="2:12">
-      <c r="B6" s="1" t="s">
+    <row r="6" ht="18" spans="2:16">
+      <c r="B6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="3">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1</v>
-      </c>
-      <c r="J6" s="4">
-        <v>0</v>
-      </c>
-      <c r="K6" s="5"/>
-      <c r="L6" s="6"/>
+      <c r="C6" s="8">
+        <v>0</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0</v>
+      </c>
+      <c r="E6" s="18">
+        <v>1</v>
+      </c>
+      <c r="F6" s="18">
+        <v>0</v>
+      </c>
+      <c r="G6" s="14">
+        <v>1</v>
+      </c>
+      <c r="H6" s="14">
+        <v>1</v>
+      </c>
+      <c r="I6" s="14">
+        <v>1</v>
+      </c>
+      <c r="J6" s="14">
+        <v>0</v>
+      </c>
+      <c r="K6" s="14">
+        <v>0</v>
+      </c>
+      <c r="L6" s="14">
+        <v>0</v>
+      </c>
+      <c r="M6" s="28"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="23"/>
     </row>
-    <row r="7" ht="18" spans="2:12">
-      <c r="B7" s="1" t="s">
+    <row r="7" ht="18" spans="2:16">
+      <c r="B7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="10">
+        <v>0</v>
+      </c>
+      <c r="D7" s="10">
+        <v>1</v>
+      </c>
+      <c r="E7" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="3">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7">
-        <v>1</v>
-      </c>
-      <c r="K7" s="5"/>
-      <c r="L7" s="6"/>
+      <c r="F7" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="17">
+        <v>0</v>
+      </c>
+      <c r="H7" s="17">
+        <v>0</v>
+      </c>
+      <c r="I7" s="17">
+        <v>1</v>
+      </c>
+      <c r="J7" s="17">
+        <v>0</v>
+      </c>
+      <c r="K7" s="17">
+        <v>0</v>
+      </c>
+      <c r="L7" s="17">
+        <v>0</v>
+      </c>
+      <c r="M7" s="28"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="23"/>
     </row>
-    <row r="8" ht="18" spans="10:12">
-      <c r="J8" s="8"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="6"/>
+    <row r="8" ht="18" spans="2:16">
+      <c r="B8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="13">
+        <v>0</v>
+      </c>
+      <c r="H8" s="14">
+        <v>1</v>
+      </c>
+      <c r="I8" s="20">
+        <v>1</v>
+      </c>
+      <c r="J8" s="14">
+        <v>1</v>
+      </c>
+      <c r="K8" s="20">
+        <v>0</v>
+      </c>
+      <c r="L8" s="20">
+        <v>0</v>
+      </c>
+      <c r="M8" s="26"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="23"/>
     </row>
-    <row r="9" ht="18" spans="10:12">
-      <c r="J9" s="8"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="6"/>
+    <row r="9" ht="18" spans="2:16">
+      <c r="B9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="16">
+        <v>0</v>
+      </c>
+      <c r="H9" s="17">
+        <v>0</v>
+      </c>
+      <c r="I9" s="21">
+        <v>0</v>
+      </c>
+      <c r="J9" s="17">
+        <v>1</v>
+      </c>
+      <c r="K9" s="21">
+        <v>0</v>
+      </c>
+      <c r="L9" s="21">
+        <v>1</v>
+      </c>
+      <c r="M9" s="26"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="23"/>
     </row>
-    <row r="10" ht="18" spans="10:12">
-      <c r="J10" s="8"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="6"/>
+    <row r="10" ht="18" spans="14:16">
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="23"/>
     </row>
-    <row r="11" ht="18" spans="10:12">
-      <c r="J11" s="8"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="6"/>
+    <row r="11" ht="18" spans="14:16">
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:J2"/>
+  <mergeCells count="4">
+    <mergeCell ref="B2:L2"/>
     <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Docs/componentes/Controlador.xlsx
+++ b/Docs/componentes/Controlador.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19485" windowHeight="7890"/>
+    <workbookView windowWidth="19485" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>Controlador</t>
   </si>
@@ -36,12 +36,15 @@
     <t>Reg Write</t>
   </si>
   <si>
-    <t>ALU src</t>
+    <t>seletor</t>
   </si>
   <si>
     <t>ALU op</t>
   </si>
   <si>
+    <t>MEMwrite</t>
+  </si>
+  <si>
     <t>loop func</t>
   </si>
   <si>
@@ -51,32 +54,38 @@
     <t>sub</t>
   </si>
   <si>
-    <t>move</t>
-  </si>
-  <si>
     <t>loop</t>
   </si>
   <si>
+    <t>lw</t>
+  </si>
+  <si>
+    <t>sw</t>
+  </si>
+  <si>
+    <t>LI</t>
+  </si>
+  <si>
     <t>beq</t>
   </si>
   <si>
     <t>x</t>
   </si>
   <si>
-    <t>lw</t>
-  </si>
-  <si>
-    <t>sw</t>
-  </si>
-  <si>
-    <t>MEMwrite</t>
+    <t>bne</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,7 +95,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="3" tint="0.39997558519241921"/>
+      <color theme="3" tint="0.399975585192419"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -105,8 +114,152 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -115,18 +268,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -184,22 +511,264 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -221,18 +790,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -242,11 +799,64 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -537,90 +1147,90 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="B2:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.28515625" customWidth="1"/>
-    <col min="4" max="4" width="4.140625" customWidth="1"/>
-    <col min="5" max="5" width="3.7109375" customWidth="1"/>
-    <col min="6" max="6" width="5.140625" customWidth="1"/>
-    <col min="7" max="7" width="4.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.1407407407407" customWidth="1"/>
+    <col min="3" max="3" width="4.28148148148148" customWidth="1"/>
+    <col min="4" max="4" width="4.14074074074074" customWidth="1"/>
+    <col min="5" max="5" width="3.71111111111111" customWidth="1"/>
+    <col min="6" max="6" width="5.14074074074074" customWidth="1"/>
+    <col min="7" max="7" width="4.42222222222222" customWidth="1"/>
     <col min="8" max="8" width="5" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.5703125" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.28515625" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" customWidth="1"/>
+    <col min="9" max="9" width="9.71111111111111" customWidth="1"/>
+    <col min="10" max="10" width="7.28148148148148" customWidth="1"/>
+    <col min="11" max="12" width="6.57037037037037" customWidth="1"/>
+    <col min="13" max="13" width="10.1407407407407" customWidth="1"/>
+    <col min="14" max="14" width="9.28148148148148" customWidth="1"/>
+    <col min="15" max="15" width="9.14074074074074" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17">
-      <c r="B2" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
+    <row r="2" spans="2:15">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="2:17" ht="18.75">
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="13" t="s">
+    <row r="3" ht="18" spans="2:15">
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13" t="s">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="1" t="s">
+      <c r="H3" s="2"/>
+      <c r="I3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="15"/>
-      <c r="M3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N3" s="16" t="s">
+      <c r="L3" s="11"/>
+      <c r="M3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="15"/>
+      <c r="N3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="11"/>
     </row>
-    <row r="4" spans="2:17">
-      <c r="B4" s="2" t="s">
-        <v>9</v>
+    <row r="4" spans="2:15">
+      <c r="B4" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="C4" s="3">
         <v>0</v>
@@ -662,9 +1272,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:17">
+    <row r="5" spans="2:15">
       <c r="B5" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="5">
         <v>0</v>
@@ -706,9 +1316,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:17" ht="18.75">
-      <c r="B6" s="2" t="s">
-        <v>11</v>
+    <row r="6" ht="18" spans="2:17">
+      <c r="B6" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="C6" s="3">
         <v>0</v>
@@ -723,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="G6" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7">
         <v>0</v>
@@ -744,41 +1354,41 @@
         <v>0</v>
       </c>
       <c r="N6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" s="7">
         <v>0</v>
       </c>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="11"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="14"/>
     </row>
-    <row r="7" spans="2:17" ht="18.75">
-      <c r="B7" s="2" t="s">
-        <v>12</v>
+    <row r="7" ht="18" spans="2:17">
+      <c r="B7" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="C7" s="3">
         <v>0</v>
       </c>
       <c r="D7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="7">
         <v>0</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="7">
         <v>0</v>
@@ -793,14 +1403,14 @@
         <v>1</v>
       </c>
       <c r="O7" s="7">
-        <v>0</v>
-      </c>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="11"/>
+        <v>1</v>
+      </c>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="14"/>
     </row>
-    <row r="8" spans="2:17" ht="18.75">
+    <row r="8" ht="18" spans="2:17">
       <c r="B8" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" s="5">
         <v>0</v>
@@ -808,11 +1418,11 @@
       <c r="D8" s="5">
         <v>1</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>14</v>
+      <c r="E8" s="8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="8">
+        <v>1</v>
       </c>
       <c r="G8" s="9">
         <v>0</v>
@@ -824,53 +1434,53 @@
         <v>0</v>
       </c>
       <c r="J8" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="9">
         <v>0</v>
       </c>
       <c r="M8" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" s="9">
-        <v>0</v>
-      </c>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="11"/>
+        <v>1</v>
+      </c>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="14"/>
     </row>
-    <row r="9" spans="2:17" ht="18.75">
-      <c r="B9" s="2" t="s">
+    <row r="9" ht="18" spans="2:17">
+      <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>14</v>
+        <v>1</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0</v>
       </c>
       <c r="G9" s="7">
         <v>0</v>
       </c>
       <c r="H9" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="7">
         <v>1</v>
       </c>
       <c r="J9" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="7">
         <v>0</v>
@@ -882,15 +1492,15 @@
         <v>0</v>
       </c>
       <c r="N9" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" s="7">
-        <v>0</v>
-      </c>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="11"/>
+        <v>1</v>
+      </c>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="14"/>
     </row>
-    <row r="10" spans="2:17" ht="18.75">
+    <row r="10" ht="18" spans="2:17">
       <c r="B10" s="4" t="s">
         <v>16</v>
       </c>
@@ -898,13 +1508,13 @@
         <v>1</v>
       </c>
       <c r="D10" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G10" s="9">
         <v>0</v>
@@ -916,16 +1526,16 @@
         <v>0</v>
       </c>
       <c r="J10" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="9">
         <v>0</v>
       </c>
       <c r="M10" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" s="9">
         <v>0</v>
@@ -933,18 +1543,58 @@
       <c r="O10" s="9">
         <v>0</v>
       </c>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="11"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="14"/>
     </row>
-    <row r="11" spans="2:17" ht="18.75">
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="11"/>
+    <row r="11" ht="18" spans="2:17">
+      <c r="B11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="9">
+        <v>0</v>
+      </c>
+      <c r="H11" s="9">
+        <v>0</v>
+      </c>
+      <c r="I11" s="9">
+        <v>0</v>
+      </c>
+      <c r="J11" s="9">
+        <v>0</v>
+      </c>
+      <c r="K11" s="9">
+        <v>1</v>
+      </c>
+      <c r="L11" s="9">
+        <v>1</v>
+      </c>
+      <c r="M11" s="9">
+        <v>0</v>
+      </c>
+      <c r="N11" s="9">
+        <v>0</v>
+      </c>
+      <c r="O11" s="9">
+        <v>0</v>
+      </c>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="14"/>
     </row>
-    <row r="12" spans="2:17" ht="18.75">
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="11"/>
+    <row r="12" ht="18" spans="16:17">
+      <c r="P12" s="13"/>
+      <c r="Q12" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -957,31 +1607,40 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Docs/componentes/Controlador.xlsx
+++ b/Docs/componentes/Controlador.xlsx
@@ -80,9 +80,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="23">
@@ -115,9 +115,56 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,6 +178,50 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -140,6 +231,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -147,113 +245,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,175 +280,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,11 +512,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,22 +531,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,21 +547,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,6 +580,30 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -614,148 +614,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1156,7 +1156,7 @@
   <dimension ref="B2:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -1363,184 +1363,184 @@
       <c r="Q6" s="14"/>
     </row>
     <row r="7" ht="18" spans="2:17">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="3">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1</v>
-      </c>
-      <c r="E7" s="6">
-        <v>0</v>
-      </c>
-      <c r="F7" s="6">
-        <v>0</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="7">
-        <v>1</v>
-      </c>
-      <c r="J7" s="7">
-        <v>1</v>
-      </c>
-      <c r="K7" s="7">
-        <v>0</v>
-      </c>
-      <c r="L7" s="7">
-        <v>0</v>
-      </c>
-      <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7">
-        <v>1</v>
-      </c>
-      <c r="O7" s="7">
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0</v>
+      </c>
+      <c r="H7" s="9">
+        <v>1</v>
+      </c>
+      <c r="I7" s="9">
+        <v>1</v>
+      </c>
+      <c r="J7" s="9">
+        <v>1</v>
+      </c>
+      <c r="K7" s="9">
+        <v>0</v>
+      </c>
+      <c r="L7" s="9">
+        <v>0</v>
+      </c>
+      <c r="M7" s="9">
+        <v>0</v>
+      </c>
+      <c r="N7" s="9">
+        <v>1</v>
+      </c>
+      <c r="O7" s="9">
         <v>1</v>
       </c>
       <c r="P7" s="13"/>
       <c r="Q7" s="14"/>
     </row>
     <row r="8" ht="18" spans="2:17">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="5">
-        <v>0</v>
-      </c>
-      <c r="D8" s="5">
-        <v>1</v>
-      </c>
-      <c r="E8" s="8">
-        <v>0</v>
-      </c>
-      <c r="F8" s="8">
-        <v>1</v>
-      </c>
-      <c r="G8" s="9">
-        <v>0</v>
-      </c>
-      <c r="H8" s="9">
-        <v>0</v>
-      </c>
-      <c r="I8" s="9">
-        <v>0</v>
-      </c>
-      <c r="J8" s="9">
-        <v>1</v>
-      </c>
-      <c r="K8" s="9">
-        <v>0</v>
-      </c>
-      <c r="L8" s="9">
-        <v>0</v>
-      </c>
-      <c r="M8" s="9">
-        <v>1</v>
-      </c>
-      <c r="N8" s="9">
-        <v>1</v>
-      </c>
-      <c r="O8" s="9">
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7">
+        <v>1</v>
+      </c>
+      <c r="K8" s="7">
+        <v>0</v>
+      </c>
+      <c r="L8" s="7">
+        <v>0</v>
+      </c>
+      <c r="M8" s="7">
+        <v>1</v>
+      </c>
+      <c r="N8" s="7">
+        <v>1</v>
+      </c>
+      <c r="O8" s="7">
         <v>1</v>
       </c>
       <c r="P8" s="13"/>
       <c r="Q8" s="14"/>
     </row>
     <row r="9" ht="18" spans="2:17">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="3">
-        <v>0</v>
-      </c>
-      <c r="D9" s="3">
-        <v>1</v>
-      </c>
-      <c r="E9" s="6">
-        <v>1</v>
-      </c>
-      <c r="F9" s="6">
-        <v>0</v>
-      </c>
-      <c r="G9" s="7">
-        <v>0</v>
-      </c>
-      <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7">
-        <v>1</v>
-      </c>
-      <c r="J9" s="7">
-        <v>0</v>
-      </c>
-      <c r="K9" s="7">
-        <v>0</v>
-      </c>
-      <c r="L9" s="7">
-        <v>0</v>
-      </c>
-      <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7">
-        <v>1</v>
-      </c>
-      <c r="O9" s="7">
+      <c r="C9" s="5">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8">
+        <v>1</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="9">
+        <v>1</v>
+      </c>
+      <c r="J9" s="9">
+        <v>0</v>
+      </c>
+      <c r="K9" s="9">
+        <v>0</v>
+      </c>
+      <c r="L9" s="9">
+        <v>0</v>
+      </c>
+      <c r="M9" s="9">
+        <v>0</v>
+      </c>
+      <c r="N9" s="9">
+        <v>1</v>
+      </c>
+      <c r="O9" s="9">
         <v>1</v>
       </c>
       <c r="P9" s="13"/>
       <c r="Q9" s="14"/>
     </row>
     <row r="10" ht="18" spans="2:17">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="5">
-        <v>1</v>
-      </c>
-      <c r="D10" s="5">
-        <v>0</v>
-      </c>
-      <c r="E10" s="8" t="s">
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="9">
-        <v>0</v>
-      </c>
-      <c r="H10" s="9">
-        <v>0</v>
-      </c>
-      <c r="I10" s="9">
-        <v>0</v>
-      </c>
-      <c r="J10" s="9">
-        <v>0</v>
-      </c>
-      <c r="K10" s="9">
-        <v>1</v>
-      </c>
-      <c r="L10" s="9">
-        <v>0</v>
-      </c>
-      <c r="M10" s="9">
-        <v>0</v>
-      </c>
-      <c r="N10" s="9">
-        <v>0</v>
-      </c>
-      <c r="O10" s="9">
+      <c r="G10" s="7">
+        <v>0</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7">
+        <v>0</v>
+      </c>
+      <c r="K10" s="7">
+        <v>1</v>
+      </c>
+      <c r="L10" s="7">
+        <v>0</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7">
         <v>0</v>
       </c>
       <c r="P10" s="13"/>
